--- a/Metin_Sonmez_Missing_Original.xlsx
+++ b/Metin_Sonmez_Missing_Original.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/idil/Downloads/drive-download-20251004T092037Z-1-001/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/idilerzurum/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7808511A-EC83-3747-8799-FAEFAC285A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671EEFF4-7853-B444-9FE8-9F3719E5968E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$8800</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>PM 2.5 ( µg/m3 )</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Date</t>
@@ -36,7 +36,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -93,7 +93,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,17 +399,18 @@
   <dimension ref="A1:B8800"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F929" sqref="F929"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2643,33 +2644,21 @@
       <c r="A280" s="2">
         <v>45303.583981481483</v>
       </c>
-      <c r="B280" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
         <v>45303.625648148147</v>
       </c>
-      <c r="B281" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
         <v>45303.667314814818</v>
       </c>
-      <c r="B282" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
         <v>45303.708981481483</v>
       </c>
-      <c r="B283" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
@@ -7835,25 +7824,16 @@
       <c r="A929" s="2">
         <v>45330.625648148147</v>
       </c>
-      <c r="B929" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A930" s="2">
         <v>45330.667314814818</v>
       </c>
-      <c r="B930" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="931" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A931" s="2">
         <v>45330.708981481483</v>
       </c>
-      <c r="B931" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="932" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A932" s="2">
@@ -8795,33 +8775,21 @@
       <c r="A1049" s="2">
         <v>45335.625648148147</v>
       </c>
-      <c r="B1049" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="1050" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1050" s="2">
         <v>45335.667314814818</v>
       </c>
-      <c r="B1050" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="1051" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1051" s="2">
         <v>45335.708981481483</v>
       </c>
-      <c r="B1051" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="1052" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1052" s="2">
         <v>45335.750648148147</v>
       </c>
-      <c r="B1052" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="1053" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1053" s="2">
@@ -10123,201 +10091,126 @@
       <c r="A1215" s="2">
         <v>45342.542314814818</v>
       </c>
-      <c r="B1215" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="1216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1216" s="2">
         <v>45342.583981481483</v>
       </c>
-      <c r="B1216" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1217" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1217" s="2">
         <v>45342.625648148147</v>
       </c>
-      <c r="B1217" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1218" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1218" s="2">
         <v>45342.667314814818</v>
       </c>
-      <c r="B1218" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1219" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1219" s="2">
         <v>45342.708981481483</v>
       </c>
-      <c r="B1219" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1220" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1220" s="2">
         <v>45342.750648148147</v>
       </c>
-      <c r="B1220" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1221" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1221" s="2">
         <v>45342.792314814818</v>
       </c>
-      <c r="B1221" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1222" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1222" s="2">
         <v>45342.833981481483</v>
       </c>
-      <c r="B1222" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1223" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1223" s="2">
         <v>45342.875648148147</v>
       </c>
-      <c r="B1223" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1224" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1224" s="2">
         <v>45342.917314814818</v>
       </c>
-      <c r="B1224" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1225" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1225" s="2">
         <v>45342.958981481483</v>
       </c>
-      <c r="B1225" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1226" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1226" s="2">
         <v>45343.000648148147</v>
       </c>
-      <c r="B1226" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1227" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1227" s="2">
         <v>45343.042314814818</v>
       </c>
-      <c r="B1227" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1228" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1228" s="2">
         <v>45343.083981481483</v>
       </c>
-      <c r="B1228" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1229" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1229" s="2">
         <v>45343.125648148147</v>
       </c>
-      <c r="B1229" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1230" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1230" s="2">
         <v>45343.167314814818</v>
       </c>
-      <c r="B1230" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1231" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1231" s="2">
         <v>45343.208981481483</v>
       </c>
-      <c r="B1231" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1232" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1232" s="2">
         <v>45343.250648148147</v>
-      </c>
-      <c r="B1232" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="1233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1233" s="2">
         <v>45343.292314814818</v>
       </c>
-      <c r="B1233" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="1234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1234" s="2">
         <v>45343.333981481483</v>
       </c>
-      <c r="B1234" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="1235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1235" s="2">
         <v>45343.375648148147</v>
       </c>
-      <c r="B1235" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="1236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1236" s="2">
         <v>45343.417314814818</v>
       </c>
-      <c r="B1236" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="1237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1237" s="2">
         <v>45343.458981481483</v>
       </c>
-      <c r="B1237" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="1238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1238" s="2">
         <v>45343.500648148147</v>
       </c>
-      <c r="B1238" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="1239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1239" s="2">
         <v>45343.542314814818</v>
       </c>
-      <c r="B1239" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="1240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1240" s="2">
@@ -13387,25 +13280,16 @@
       <c r="A1623" s="2">
         <v>45359.542314814818</v>
       </c>
-      <c r="B1623" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="1624" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1624" s="2">
         <v>45359.583981481483</v>
       </c>
-      <c r="B1624" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="1625" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1625" s="2">
         <v>45359.625648148147</v>
       </c>
-      <c r="B1625" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="1626" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1626" s="2">
@@ -16307,337 +16191,211 @@
       <c r="A1988" s="2">
         <v>45374.750648148147</v>
       </c>
-      <c r="B1988" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="1989" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1989" s="2">
         <v>45374.792314814818</v>
       </c>
-      <c r="B1989" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="1990" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1990" s="2">
         <v>45374.833981481483</v>
       </c>
-      <c r="B1990" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="1991" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1991" s="2">
         <v>45374.875648148147</v>
       </c>
-      <c r="B1991" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="1992" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1992" s="2">
         <v>45374.917314814818</v>
       </c>
-      <c r="B1992" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="1993" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1993" s="2">
         <v>45374.958981481483</v>
       </c>
-      <c r="B1993" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="1994" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1994" s="2">
         <v>45375.000648148147</v>
       </c>
-      <c r="B1994" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="1995" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1995" s="2">
         <v>45375.042314814818</v>
       </c>
-      <c r="B1995" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="1996" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1996" s="2">
         <v>45375.083981481483</v>
       </c>
-      <c r="B1996" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="1997" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1997" s="2">
         <v>45375.125648148147</v>
       </c>
-      <c r="B1997" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="1998" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1998" s="2">
         <v>45375.167314814818</v>
       </c>
-      <c r="B1998" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="1999" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1999" s="2">
         <v>45375.208981481483</v>
       </c>
-      <c r="B1999" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2000" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2000" s="2">
         <v>45375.250648148147</v>
       </c>
-      <c r="B2000" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2001" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2001" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2001" s="2">
         <v>45375.292314814818</v>
       </c>
-      <c r="B2001" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2002" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2002" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2002" s="2">
         <v>45375.333981481483</v>
       </c>
-      <c r="B2002" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2003" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2003" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2003" s="2">
         <v>45375.375648148147</v>
       </c>
-      <c r="B2003" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2004" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2004" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2004" s="2">
         <v>45375.417314814818</v>
       </c>
-      <c r="B2004" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2005" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2005" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2005" s="2">
         <v>45375.458981481483</v>
       </c>
-      <c r="B2005" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2006" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2006" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2006" s="2">
         <v>45375.500648148147</v>
       </c>
-      <c r="B2006" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2007" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2007" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2007" s="2">
         <v>45375.542314814818</v>
       </c>
-      <c r="B2007" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2008" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2008" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2008" s="2">
         <v>45375.583981481483</v>
       </c>
-      <c r="B2008" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2009" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2009" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2009" s="2">
         <v>45375.625648148147</v>
       </c>
-      <c r="B2009" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2010" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2010" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2010" s="2">
         <v>45375.667314814818</v>
       </c>
-      <c r="B2010" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2011" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2011" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2011" s="2">
         <v>45375.708981481483</v>
       </c>
-      <c r="B2011" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2012" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2012" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2012" s="2">
         <v>45375.750648148147</v>
       </c>
-      <c r="B2012" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2013" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2013" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2013" s="2">
         <v>45375.792314814818</v>
       </c>
-      <c r="B2013" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2014" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2014" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2014" s="2">
         <v>45375.833981481483</v>
       </c>
-      <c r="B2014" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2015" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2015" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2015" s="2">
         <v>45375.875648148147</v>
       </c>
-      <c r="B2015" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2016" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2016" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2016" s="2">
         <v>45375.917314814818</v>
-      </c>
-      <c r="B2016" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2017" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2017" s="2">
         <v>45375.958981481483</v>
       </c>
-      <c r="B2017" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2018" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2018" s="2">
         <v>45376.000648148147</v>
       </c>
-      <c r="B2018" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2019" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2019" s="2">
         <v>45376.042314814818</v>
       </c>
-      <c r="B2019" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2020" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2020" s="2">
         <v>45376.083981481483</v>
       </c>
-      <c r="B2020" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2021" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2021" s="2">
         <v>45376.125648148147</v>
       </c>
-      <c r="B2021" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2022" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2022" s="2">
         <v>45376.167314814818</v>
       </c>
-      <c r="B2022" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2023" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2023" s="2">
         <v>45376.208981481483</v>
       </c>
-      <c r="B2023" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2024" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2024" s="2">
         <v>45376.250648148147</v>
       </c>
-      <c r="B2024" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2025" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2025" s="2">
         <v>45376.292314814818</v>
       </c>
-      <c r="B2025" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2026" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2026" s="2">
         <v>45376.333981481483</v>
       </c>
-      <c r="B2026" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2027" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2027" s="2">
         <v>45376.375648148147</v>
       </c>
-      <c r="B2027" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2028" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2028" s="2">
         <v>45376.417314814818</v>
       </c>
-      <c r="B2028" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2029" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2029" s="2">
         <v>45376.458981481483</v>
       </c>
-      <c r="B2029" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2030" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2030" s="2">
@@ -16859,9 +16617,6 @@
       <c r="A2057" s="2">
         <v>45377.625648148147</v>
       </c>
-      <c r="B2057" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2058" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2058" s="2">
@@ -17595,9 +17350,6 @@
       <c r="A2149" s="2">
         <v>45381.458981481483</v>
       </c>
-      <c r="B2149" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2150" s="2">
@@ -18379,33 +18131,21 @@
       <c r="A2247" s="2">
         <v>45385.542314814818</v>
       </c>
-      <c r="B2247" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2248" s="2">
         <v>45385.583981481483</v>
       </c>
-      <c r="B2248" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2249" s="2">
         <v>45385.625648148147</v>
       </c>
-      <c r="B2249" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2250" s="2">
         <v>45385.667314814818</v>
       </c>
-      <c r="B2250" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2251" s="2">
@@ -26235,25 +25975,16 @@
       <c r="A3229" s="2">
         <v>45426.458981481483</v>
       </c>
-      <c r="B3229" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3230" s="2">
         <v>45426.500648148147</v>
       </c>
-      <c r="B3230" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3231" s="2">
         <v>45426.542314814818</v>
       </c>
-      <c r="B3231" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3232" s="2">
@@ -31091,249 +30822,156 @@
       <c r="A3836" s="2">
         <v>45451.750648148147</v>
       </c>
-      <c r="B3836" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3837" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3837" s="2">
         <v>45451.792314814818</v>
       </c>
-      <c r="B3837" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3838" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3838" s="2">
         <v>45451.833981481483</v>
       </c>
-      <c r="B3838" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3839" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3839" s="2">
         <v>45451.875648148147</v>
       </c>
-      <c r="B3839" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3840" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3840" s="2">
         <v>45451.917314814818</v>
       </c>
-      <c r="B3840" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3841" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3841" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3841" s="2">
         <v>45451.958981481483</v>
       </c>
-      <c r="B3841" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3842" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3842" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3842" s="2">
         <v>45452.000648148147</v>
       </c>
-      <c r="B3842" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3843" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3843" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3843" s="2">
         <v>45452.042314814818</v>
       </c>
-      <c r="B3843" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3844" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3844" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3844" s="2">
         <v>45452.083981481483</v>
       </c>
-      <c r="B3844" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3845" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3845" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3845" s="2">
         <v>45452.125648148147</v>
       </c>
-      <c r="B3845" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3846" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3846" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3846" s="2">
         <v>45452.167314814818</v>
       </c>
-      <c r="B3846" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3847" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3847" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3847" s="2">
         <v>45452.208981481483</v>
       </c>
-      <c r="B3847" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3848" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3848" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3848" s="2">
         <v>45452.250648148147</v>
       </c>
-      <c r="B3848" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3849" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3849" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3849" s="2">
         <v>45452.292314814818</v>
       </c>
-      <c r="B3849" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3850" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3850" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3850" s="2">
         <v>45452.333981481483</v>
       </c>
-      <c r="B3850" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3851" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3851" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3851" s="2">
         <v>45452.375648148147</v>
       </c>
-      <c r="B3851" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3852" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3852" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3852" s="2">
         <v>45452.417314814818</v>
       </c>
-      <c r="B3852" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3853" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3853" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3853" s="2">
         <v>45452.458981481483</v>
       </c>
-      <c r="B3853" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3854" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3854" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3854" s="2">
         <v>45452.500648148147</v>
       </c>
-      <c r="B3854" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3855" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3855" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3855" s="2">
         <v>45452.542314814818</v>
       </c>
-      <c r="B3855" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3856" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3856" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3856" s="2">
         <v>45452.583981481483</v>
-      </c>
-      <c r="B3856" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="3857" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3857" s="2">
         <v>45452.625648148147</v>
       </c>
-      <c r="B3857" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3858" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3858" s="2">
         <v>45452.667314814818</v>
       </c>
-      <c r="B3858" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3859" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3859" s="2">
         <v>45452.708981481483</v>
       </c>
-      <c r="B3859" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3860" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3860" s="2">
         <v>45452.750648148147</v>
       </c>
-      <c r="B3860" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3861" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3861" s="2">
         <v>45452.792314814818</v>
       </c>
-      <c r="B3861" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3862" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3862" s="2">
         <v>45452.833981481483</v>
       </c>
-      <c r="B3862" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3863" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3863" s="2">
         <v>45452.875648148147</v>
       </c>
-      <c r="B3863" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3864" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3864" s="2">
         <v>45452.917314814818</v>
       </c>
-      <c r="B3864" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3865" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3865" s="2">
         <v>45452.958981481483</v>
       </c>
-      <c r="B3865" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3866" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3866" s="2">
         <v>45453.000648148147</v>
       </c>
-      <c r="B3866" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3867" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3867" s="2">
@@ -32427,25 +32065,16 @@
       <c r="A4003" s="2">
         <v>45458.708981481483</v>
       </c>
-      <c r="B4003" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4004" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4004" s="2">
         <v>45458.750648148147</v>
       </c>
-      <c r="B4004" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4005" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4005" s="2">
         <v>45458.792314814818</v>
       </c>
-      <c r="B4005" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4006" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4006" s="2">
@@ -32883,57 +32512,36 @@
       <c r="A4060" s="2">
         <v>45461.083981481483</v>
       </c>
-      <c r="B4060" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4061" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4061" s="2">
         <v>45461.125648148147</v>
       </c>
-      <c r="B4061" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4062" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4062" s="2">
         <v>45461.167314814818</v>
       </c>
-      <c r="B4062" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4063" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4063" s="2">
         <v>45461.208981481483</v>
       </c>
-      <c r="B4063" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4064" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4064" s="2">
         <v>45461.250648148147</v>
       </c>
-      <c r="B4064" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4065" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4065" s="2">
         <v>45461.292314814818</v>
       </c>
-      <c r="B4065" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4066" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4066" s="2">
         <v>45461.333981481483</v>
       </c>
-      <c r="B4066" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4067" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4067" s="2">
@@ -34347,9 +33955,6 @@
       <c r="A4243" s="2">
         <v>45468.708981481483</v>
       </c>
-      <c r="B4243" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4244" s="2">
@@ -36131,17 +35736,11 @@
       <c r="A4466" s="2">
         <v>45478.000648148147</v>
       </c>
-      <c r="B4466" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4467" s="2">
         <v>45478.042314814818</v>
       </c>
-      <c r="B4467" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4468" s="2">
@@ -38355,33 +37954,21 @@
       <c r="A4744" s="2">
         <v>45489.583981481483</v>
       </c>
-      <c r="B4744" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4745" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4745" s="2">
         <v>45489.625648148147</v>
       </c>
-      <c r="B4745" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4746" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4746" s="2">
         <v>45489.667314814818</v>
       </c>
-      <c r="B4746" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4747" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4747" s="2">
         <v>45489.708981481483</v>
       </c>
-      <c r="B4747" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4748" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4748" s="2">
@@ -42955,33 +42542,21 @@
       <c r="A5319" s="2">
         <v>45513.542314814818</v>
       </c>
-      <c r="B5319" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="5320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5320" s="2">
         <v>45513.583981481483</v>
       </c>
-      <c r="B5320" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="5321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5321" s="2">
         <v>45513.625648148147</v>
       </c>
-      <c r="B5321" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="5322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5322" s="2">
         <v>45513.667314814818</v>
       </c>
-      <c r="B5322" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="5323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5323" s="2">
@@ -45619,9 +45194,6 @@
       <c r="A5652" s="2">
         <v>45527.417314814818</v>
       </c>
-      <c r="B5652" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="5653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5653" s="2">
@@ -46667,9 +46239,6 @@
       <c r="A5783" s="2">
         <v>45532.875648148147</v>
       </c>
-      <c r="B5783" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="5784" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5784" s="2">
@@ -49507,9 +49076,6 @@
       <c r="A6138" s="2">
         <v>45547.667314814818</v>
       </c>
-      <c r="B6138" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6139" s="2">
@@ -49659,977 +49225,611 @@
       <c r="A6157" s="2">
         <v>45548.458981481483</v>
       </c>
-      <c r="B6157" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6158" s="2">
         <v>45548.500648148147</v>
       </c>
-      <c r="B6158" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6159" s="2">
         <v>45548.542314814818</v>
       </c>
-      <c r="B6159" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6160" s="2">
         <v>45548.583981481483</v>
       </c>
-      <c r="B6160" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6161" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6161" s="2">
         <v>45548.625648148147</v>
       </c>
-      <c r="B6161" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6162" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6162" s="2">
         <v>45548.667314814818</v>
       </c>
-      <c r="B6162" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6163" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6163" s="2">
         <v>45548.708981481483</v>
       </c>
-      <c r="B6163" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6164" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6164" s="2">
         <v>45548.750648148147</v>
       </c>
-      <c r="B6164" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6165" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6165" s="2">
         <v>45548.792314814818</v>
       </c>
-      <c r="B6165" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6166" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6166" s="2">
         <v>45548.833981481483</v>
       </c>
-      <c r="B6166" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6167" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6167" s="2">
         <v>45548.875648148147</v>
       </c>
-      <c r="B6167" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6168" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6168" s="2">
         <v>45548.917314814818</v>
       </c>
-      <c r="B6168" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6169" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6169" s="2">
         <v>45548.958981481483</v>
       </c>
-      <c r="B6169" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6170" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6170" s="2">
         <v>45549.000648148147</v>
       </c>
-      <c r="B6170" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6171" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6171" s="2">
         <v>45549.042314814818</v>
       </c>
-      <c r="B6171" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6172" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6172" s="2">
         <v>45549.083981481483</v>
       </c>
-      <c r="B6172" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6173" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6173" s="2">
         <v>45549.125648148147</v>
       </c>
-      <c r="B6173" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6174" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6174" s="2">
         <v>45549.167314814818</v>
       </c>
-      <c r="B6174" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6175" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6175" s="2">
         <v>45549.208981481483</v>
       </c>
-      <c r="B6175" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6176" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6176" s="2">
         <v>45549.250648148147</v>
       </c>
-      <c r="B6176" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6177" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6177" s="2">
         <v>45549.292314814818</v>
       </c>
-      <c r="B6177" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6178" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6178" s="2">
         <v>45549.333981481483</v>
       </c>
-      <c r="B6178" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6179" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6179" s="2">
         <v>45549.375648148147</v>
       </c>
-      <c r="B6179" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6180" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6180" s="2">
         <v>45549.417314814818</v>
       </c>
-      <c r="B6180" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6181" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6181" s="2">
         <v>45549.458981481483</v>
       </c>
-      <c r="B6181" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6182" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6182" s="2">
         <v>45549.500648148147</v>
       </c>
-      <c r="B6182" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6183" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6183" s="2">
         <v>45549.542314814818</v>
       </c>
-      <c r="B6183" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6184" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6184" s="2">
         <v>45549.583981481483</v>
       </c>
-      <c r="B6184" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6185" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6185" s="2">
         <v>45549.625648148147</v>
       </c>
-      <c r="B6185" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6186" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6186" s="2">
         <v>45549.667314814818</v>
       </c>
-      <c r="B6186" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6187" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6187" s="2">
         <v>45549.708981481483</v>
       </c>
-      <c r="B6187" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6188" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6188" s="2">
         <v>45549.750648148147</v>
       </c>
-      <c r="B6188" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6189" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6189" s="2">
         <v>45549.792314814818</v>
       </c>
-      <c r="B6189" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6190" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6190" s="2">
         <v>45549.833981481483</v>
       </c>
-      <c r="B6190" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6191" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6191" s="2">
         <v>45549.875648148147</v>
       </c>
-      <c r="B6191" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6192" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6192" s="2">
         <v>45549.917314814818</v>
       </c>
-      <c r="B6192" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6193" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6193" s="2">
         <v>45549.958981481483</v>
       </c>
-      <c r="B6193" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6194" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6194" s="2">
         <v>45550.000648148147</v>
       </c>
-      <c r="B6194" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6195" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6195" s="2">
         <v>45550.042314814818</v>
       </c>
-      <c r="B6195" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6196" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6196" s="2">
         <v>45550.083981481483</v>
       </c>
-      <c r="B6196" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6197" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6197" s="2">
         <v>45550.125648148147</v>
       </c>
-      <c r="B6197" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6198" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6198" s="2">
         <v>45550.167314814818</v>
       </c>
-      <c r="B6198" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6199" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6199" s="2">
         <v>45550.208981481483</v>
       </c>
-      <c r="B6199" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6200" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6200" s="2">
         <v>45550.250648148147</v>
       </c>
-      <c r="B6200" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6201" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6201" s="2">
         <v>45550.292314814818</v>
       </c>
-      <c r="B6201" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6202" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6202" s="2">
         <v>45550.333981481483</v>
       </c>
-      <c r="B6202" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6203" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6203" s="2">
         <v>45550.375648148147</v>
       </c>
-      <c r="B6203" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6204" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6204" s="2">
         <v>45550.417314814818</v>
       </c>
-      <c r="B6204" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6205" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6205" s="2">
         <v>45550.458981481483</v>
       </c>
-      <c r="B6205" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6206" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6206" s="2">
         <v>45550.500648148147</v>
       </c>
-      <c r="B6206" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6207" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6207" s="2">
         <v>45550.542314814818</v>
       </c>
-      <c r="B6207" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6208" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6208" s="2">
         <v>45550.583981481483</v>
       </c>
-      <c r="B6208" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6209" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6209" s="2">
         <v>45550.625648148147</v>
       </c>
-      <c r="B6209" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6210" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6210" s="2">
         <v>45550.667314814818</v>
       </c>
-      <c r="B6210" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6211" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6211" s="2">
         <v>45550.708981481483</v>
       </c>
-      <c r="B6211" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6212" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6212" s="2">
         <v>45550.750648148147</v>
       </c>
-      <c r="B6212" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6213" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6213" s="2">
         <v>45550.792314814818</v>
       </c>
-      <c r="B6213" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6214" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6214" s="2">
         <v>45550.833981481483</v>
       </c>
-      <c r="B6214" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6215" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6215" s="2">
         <v>45550.875648148147</v>
       </c>
-      <c r="B6215" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6216" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6216" s="2">
         <v>45550.917314814818</v>
       </c>
-      <c r="B6216" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6217" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6217" s="2">
         <v>45550.958981481483</v>
       </c>
-      <c r="B6217" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6218" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6218" s="2">
         <v>45551.000648148147</v>
       </c>
-      <c r="B6218" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6219" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6219" s="2">
         <v>45551.042314814818</v>
       </c>
-      <c r="B6219" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6220" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6220" s="2">
         <v>45551.083981481483</v>
       </c>
-      <c r="B6220" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6221" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6221" s="2">
         <v>45551.125648148147</v>
       </c>
-      <c r="B6221" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6222" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6222" s="2">
         <v>45551.167314814818</v>
       </c>
-      <c r="B6222" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6223" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6223" s="2">
         <v>45551.208981481483</v>
       </c>
-      <c r="B6223" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6224" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6224" s="2">
         <v>45551.250648148147</v>
       </c>
-      <c r="B6224" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6225" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6225" s="2">
         <v>45551.292314814818</v>
       </c>
-      <c r="B6225" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6226" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6226" s="2">
         <v>45551.333981481483</v>
       </c>
-      <c r="B6226" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6227" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6227" s="2">
         <v>45551.375648148147</v>
       </c>
-      <c r="B6227" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6228" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6228" s="2">
         <v>45551.417314814818</v>
       </c>
-      <c r="B6228" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6229" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6229" s="2">
         <v>45551.458981481483</v>
       </c>
-      <c r="B6229" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6230" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6230" s="2">
         <v>45551.500648148147</v>
       </c>
-      <c r="B6230" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6231" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6231" s="2">
         <v>45551.542314814818</v>
       </c>
-      <c r="B6231" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6232" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6232" s="2">
         <v>45551.583981481483</v>
       </c>
-      <c r="B6232" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6233" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6233" s="2">
         <v>45551.625648148147</v>
       </c>
-      <c r="B6233" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6234" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6234" s="2">
         <v>45551.667314814818</v>
       </c>
-      <c r="B6234" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6235" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6235" s="2">
         <v>45551.708981481483</v>
       </c>
-      <c r="B6235" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6236" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6236" s="2">
         <v>45551.750648148147</v>
       </c>
-      <c r="B6236" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6237" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6237" s="2">
         <v>45551.792314814818</v>
       </c>
-      <c r="B6237" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6238" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6238" s="2">
         <v>45551.833981481483</v>
       </c>
-      <c r="B6238" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6239" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6239" s="2">
         <v>45551.875648148147</v>
       </c>
-      <c r="B6239" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6240" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6240" s="2">
         <v>45551.917314814818</v>
       </c>
-      <c r="B6240" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6241" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6241" s="2">
         <v>45551.958981481483</v>
       </c>
-      <c r="B6241" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6242" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6242" s="2">
         <v>45552.000648148147</v>
       </c>
-      <c r="B6242" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6243" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6243" s="2">
         <v>45552.042314814818</v>
       </c>
-      <c r="B6243" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6244" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6244" s="2">
         <v>45552.083981481483</v>
       </c>
-      <c r="B6244" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6245" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6245" s="2">
         <v>45552.125648148147</v>
       </c>
-      <c r="B6245" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6246" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6246" s="2">
         <v>45552.167314814818</v>
       </c>
-      <c r="B6246" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6247" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6247" s="2">
         <v>45552.208981481483</v>
       </c>
-      <c r="B6247" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6248" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6248" s="2">
         <v>45552.250648148147</v>
       </c>
-      <c r="B6248" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6249" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6249" s="2">
         <v>45552.292314814818</v>
       </c>
-      <c r="B6249" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6250" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6250" s="2">
         <v>45552.333981481483</v>
       </c>
-      <c r="B6250" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6251" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6251" s="2">
         <v>45552.375648148147</v>
       </c>
-      <c r="B6251" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6252" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6252" s="2">
         <v>45552.417314814818</v>
       </c>
-      <c r="B6252" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6253" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6253" s="2">
         <v>45552.458981481483</v>
       </c>
-      <c r="B6253" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6254" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6254" s="2">
         <v>45552.500648148147</v>
       </c>
-      <c r="B6254" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6255" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6255" s="2">
         <v>45552.542314814818</v>
       </c>
-      <c r="B6255" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6256" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6256" s="2">
         <v>45552.583981481483</v>
       </c>
-      <c r="B6256" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6257" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6257" s="2">
         <v>45552.625648148147</v>
       </c>
-      <c r="B6257" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6258" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6258" s="2">
         <v>45552.667314814818</v>
       </c>
-      <c r="B6258" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6259" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6259" s="2">
         <v>45552.708981481483</v>
       </c>
-      <c r="B6259" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6260" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6260" s="2">
         <v>45552.750648148147</v>
       </c>
-      <c r="B6260" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6261" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6261" s="2">
         <v>45552.792314814818</v>
       </c>
-      <c r="B6261" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6262" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6262" s="2">
         <v>45552.833981481483</v>
       </c>
-      <c r="B6262" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6263" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6263" s="2">
         <v>45552.875648148147</v>
       </c>
-      <c r="B6263" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6264" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6264" s="2">
         <v>45552.917314814818</v>
       </c>
-      <c r="B6264" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6265" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6265" s="2">
         <v>45552.958981481483</v>
       </c>
-      <c r="B6265" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6266" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6266" s="2">
         <v>45553.000648148147</v>
       </c>
-      <c r="B6266" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6267" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6267" s="2">
         <v>45553.042314814818</v>
       </c>
-      <c r="B6267" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6268" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6268" s="2">
         <v>45553.083981481483</v>
       </c>
-      <c r="B6268" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6269" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6269" s="2">
         <v>45553.125648148147</v>
       </c>
-      <c r="B6269" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6270" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6270" s="2">
         <v>45553.167314814818</v>
       </c>
-      <c r="B6270" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6271" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6271" s="2">
         <v>45553.208981481483</v>
       </c>
-      <c r="B6271" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6272" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6272" s="2">
         <v>45553.250648148147</v>
-      </c>
-      <c r="B6272" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="6273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6273" s="2">
         <v>45553.292314814818</v>
       </c>
-      <c r="B6273" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6274" s="2">
         <v>45553.333981481483</v>
       </c>
-      <c r="B6274" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6275" s="2">
         <v>45553.375648148147</v>
       </c>
-      <c r="B6275" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6276" s="2">
         <v>45553.417314814818</v>
       </c>
-      <c r="B6276" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6277" s="2">
         <v>45553.458981481483</v>
       </c>
-      <c r="B6277" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6278" s="2">
         <v>45553.500648148147</v>
       </c>
-      <c r="B6278" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6279" s="2">
@@ -61331,9 +60531,6 @@
       <c r="A7616" s="2">
         <v>45609.250648148147</v>
       </c>
-      <c r="B7616" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7617" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7617" s="2">
@@ -65435,17 +64632,11 @@
       <c r="A8129" s="2">
         <v>45630.625648148147</v>
       </c>
-      <c r="B8129" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8130" s="2">
         <v>45630.667314814818</v>
       </c>
-      <c r="B8130" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8131" s="2">
@@ -67931,9 +67122,6 @@
       <c r="A8441" s="2">
         <v>45643.625648148147</v>
       </c>
-      <c r="B8441" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8442" s="2">
@@ -68107,33 +67295,21 @@
       <c r="A8463" s="2">
         <v>45644.542314814818</v>
       </c>
-      <c r="B8463" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8464" s="2">
         <v>45644.583981481483</v>
       </c>
-      <c r="B8464" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8465" s="2">
         <v>45644.625648148147</v>
       </c>
-      <c r="B8465" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8466" s="2">
         <v>45644.667314814818</v>
       </c>
-      <c r="B8466" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8467" s="2">
@@ -69851,9 +69027,6 @@
       <c r="A8681" s="2">
         <v>45653.625648148147</v>
       </c>
-      <c r="B8681" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8682" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8682" s="2">
@@ -69899,912 +69072,570 @@
       <c r="A8687" s="2">
         <v>45653.875648148147</v>
       </c>
-      <c r="B8687" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8688" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8688" s="2">
         <v>45653.917314814818</v>
       </c>
-      <c r="B8688" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8689" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8689" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8689" s="2">
         <v>45653.958981481483</v>
       </c>
-      <c r="B8689" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8690" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8690" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8690" s="2">
         <v>45654.000648148147</v>
       </c>
-      <c r="B8690" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8691" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8691" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8691" s="2">
         <v>45654.042314814818</v>
       </c>
-      <c r="B8691" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8692" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8692" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8692" s="2">
         <v>45654.083981481483</v>
       </c>
-      <c r="B8692" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8693" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8693" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8693" s="2">
         <v>45654.125648148147</v>
       </c>
-      <c r="B8693" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8694" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8694" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8694" s="2">
         <v>45654.167314814818</v>
       </c>
-      <c r="B8694" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8695" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8695" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8695" s="2">
         <v>45654.208981481483</v>
       </c>
-      <c r="B8695" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8696" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8696" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8696" s="2">
         <v>45654.250648148147</v>
       </c>
-      <c r="B8696" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8697" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8697" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8697" s="2">
         <v>45654.292314814818</v>
       </c>
-      <c r="B8697" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8698" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8698" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8698" s="2">
         <v>45654.333981481483</v>
       </c>
-      <c r="B8698" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8699" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8699" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8699" s="2">
         <v>45654.375648148147</v>
       </c>
-      <c r="B8699" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8700" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8700" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8700" s="2">
         <v>45654.417314814818</v>
       </c>
-      <c r="B8700" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8701" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8701" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8701" s="2">
         <v>45654.458981481483</v>
       </c>
-      <c r="B8701" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8702" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8702" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8702" s="2">
         <v>45654.500648148147</v>
       </c>
-      <c r="B8702" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8703" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8703" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8703" s="2">
         <v>45654.542314814818</v>
       </c>
-      <c r="B8703" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8704" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8704" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8704" s="2">
         <v>45654.583981481483</v>
       </c>
-      <c r="B8704" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8705" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8705" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8705" s="2">
         <v>45654.625648148147</v>
       </c>
-      <c r="B8705" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8706" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8706" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8706" s="2">
         <v>45654.667314814818</v>
       </c>
-      <c r="B8706" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8707" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8707" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8707" s="2">
         <v>45654.708981481483</v>
       </c>
-      <c r="B8707" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8708" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8708" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8708" s="2">
         <v>45654.750648148147</v>
       </c>
-      <c r="B8708" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8709" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8709" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8709" s="2">
         <v>45654.792314814818</v>
       </c>
-      <c r="B8709" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8710" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8710" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8710" s="2">
         <v>45654.833981481483</v>
       </c>
-      <c r="B8710" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8711" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8711" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8711" s="2">
         <v>45654.875648148147</v>
       </c>
-      <c r="B8711" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8712" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8712" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8712" s="2">
         <v>45654.917314814818</v>
       </c>
-      <c r="B8712" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8713" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8713" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8713" s="2">
         <v>45654.958981481483</v>
       </c>
-      <c r="B8713" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8714" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8714" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8714" s="2">
         <v>45655.000648148147</v>
       </c>
-      <c r="B8714" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8715" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8715" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8715" s="2">
         <v>45655.042314814818</v>
       </c>
-      <c r="B8715" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8716" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8716" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8716" s="2">
         <v>45655.083981481483</v>
       </c>
-      <c r="B8716" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8717" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8717" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8717" s="2">
         <v>45655.125648148147</v>
       </c>
-      <c r="B8717" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8718" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8718" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8718" s="2">
         <v>45655.167314814818</v>
       </c>
-      <c r="B8718" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8719" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8719" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8719" s="2">
         <v>45655.208981481483</v>
       </c>
-      <c r="B8719" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8720" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8720" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8720" s="2">
         <v>45655.250648148147</v>
       </c>
-      <c r="B8720" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8721" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8721" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8721" s="2">
         <v>45655.292314814818</v>
       </c>
-      <c r="B8721" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8722" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8722" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8722" s="2">
         <v>45655.333981481483</v>
       </c>
-      <c r="B8722" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8723" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8723" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8723" s="2">
         <v>45655.375648148147</v>
       </c>
-      <c r="B8723" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8724" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8724" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8724" s="2">
         <v>45655.417314814818</v>
       </c>
-      <c r="B8724" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8725" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8725" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8725" s="2">
         <v>45655.458981481483</v>
       </c>
-      <c r="B8725" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8726" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8726" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8726" s="2">
         <v>45655.500648148147</v>
       </c>
-      <c r="B8726" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8727" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8727" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8727" s="2">
         <v>45655.542314814818</v>
       </c>
-      <c r="B8727" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8728" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8728" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8728" s="2">
         <v>45655.583981481483</v>
       </c>
-      <c r="B8728" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8729" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8729" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8729" s="2">
         <v>45655.625648148147</v>
       </c>
-      <c r="B8729" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8730" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8730" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8730" s="2">
         <v>45655.667314814818</v>
       </c>
-      <c r="B8730" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8731" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8731" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8731" s="2">
         <v>45655.708981481483</v>
       </c>
-      <c r="B8731" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8732" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8732" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8732" s="2">
         <v>45655.750648148147</v>
       </c>
-      <c r="B8732" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8733" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8733" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8733" s="2">
         <v>45655.792314814818</v>
       </c>
-      <c r="B8733" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8734" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8734" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8734" s="2">
         <v>45655.833981481483</v>
       </c>
-      <c r="B8734" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8735" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8735" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8735" s="2">
         <v>45655.875648148147</v>
       </c>
-      <c r="B8735" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8736" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8736" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8736" s="2">
         <v>45655.917314814818</v>
       </c>
-      <c r="B8736" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8737" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8737" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8737" s="2">
         <v>45655.958981481483</v>
       </c>
-      <c r="B8737" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8738" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8738" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8738" s="2">
         <v>45656.000648148147</v>
       </c>
-      <c r="B8738" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8739" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8739" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8739" s="2">
         <v>45656.042314814818</v>
       </c>
-      <c r="B8739" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8740" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8740" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8740" s="2">
         <v>45656.083981481483</v>
       </c>
-      <c r="B8740" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8741" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8741" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8741" s="2">
         <v>45656.125648148147</v>
       </c>
-      <c r="B8741" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8742" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8742" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8742" s="2">
         <v>45656.167314814818</v>
       </c>
-      <c r="B8742" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8743" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8743" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8743" s="2">
         <v>45656.208981481483</v>
       </c>
-      <c r="B8743" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8744" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8744" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8744" s="2">
         <v>45656.250648148147</v>
       </c>
-      <c r="B8744" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8745" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8745" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8745" s="2">
         <v>45656.292314814818</v>
       </c>
-      <c r="B8745" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8746" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8746" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8746" s="2">
         <v>45656.333981481483</v>
       </c>
-      <c r="B8746" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8747" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8747" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8747" s="2">
         <v>45656.375648148147</v>
       </c>
-      <c r="B8747" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8748" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8748" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8748" s="2">
         <v>45656.417314814818</v>
       </c>
-      <c r="B8748" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8749" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8749" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8749" s="2">
         <v>45656.458981481483</v>
       </c>
-      <c r="B8749" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8750" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8750" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8750" s="2">
         <v>45656.500648148147</v>
       </c>
-      <c r="B8750" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8751" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8751" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8751" s="2">
         <v>45656.542314814818</v>
       </c>
-      <c r="B8751" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8752" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8752" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8752" s="2">
         <v>45656.583981481483</v>
       </c>
-      <c r="B8752" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8753" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8753" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8753" s="2">
         <v>45656.625648148147</v>
       </c>
-      <c r="B8753" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8754" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8754" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8754" s="2">
         <v>45656.667314814818</v>
       </c>
-      <c r="B8754" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8755" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8755" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8755" s="2">
         <v>45656.708981481483</v>
       </c>
-      <c r="B8755" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8756" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8756" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8756" s="2">
         <v>45656.750648148147</v>
       </c>
-      <c r="B8756" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8757" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8757" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8757" s="2">
         <v>45656.792314814818</v>
       </c>
-      <c r="B8757" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8758" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8758" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8758" s="2">
         <v>45656.833981481483</v>
       </c>
-      <c r="B8758" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8759" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8759" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8759" s="2">
         <v>45656.875648148147</v>
       </c>
-      <c r="B8759" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8760" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8760" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8760" s="2">
         <v>45656.917314814818</v>
       </c>
-      <c r="B8760" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8761" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8761" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8761" s="2">
         <v>45656.958981481483</v>
       </c>
-      <c r="B8761" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8762" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8762" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8762" s="2">
         <v>45657.000648148147</v>
       </c>
-      <c r="B8762" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8763" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8763" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8763" s="2">
         <v>45657.042314814818</v>
       </c>
-      <c r="B8763" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8764" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8764" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8764" s="2">
         <v>45657.083981481483</v>
       </c>
-      <c r="B8764" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8765" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8765" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8765" s="2">
         <v>45657.125648148147</v>
       </c>
-      <c r="B8765" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8766" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8766" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8766" s="2">
         <v>45657.167314814818</v>
       </c>
-      <c r="B8766" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8767" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8767" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8767" s="2">
         <v>45657.208981481483</v>
       </c>
-      <c r="B8767" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8768" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8768" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8768" s="2">
         <v>45657.250648148147</v>
       </c>
-      <c r="B8768" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8769" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8769" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8769" s="2">
         <v>45657.292314814818</v>
       </c>
-      <c r="B8769" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8770" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8770" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8770" s="2">
         <v>45657.333981481483</v>
       </c>
-      <c r="B8770" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8771" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8771" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8771" s="2">
         <v>45657.375648148147</v>
       </c>
-      <c r="B8771" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8772" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8772" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8772" s="2">
         <v>45657.417314814818</v>
       </c>
-      <c r="B8772" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8773" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8773" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8773" s="2">
         <v>45657.458981481483</v>
       </c>
-      <c r="B8773" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8774" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8774" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8774" s="2">
         <v>45657.500648148147</v>
       </c>
-      <c r="B8774" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8775" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8775" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8775" s="2">
         <v>45657.542314814818</v>
       </c>
-      <c r="B8775" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8776" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8776" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8776" s="2">
         <v>45657.583981481483</v>
       </c>
-      <c r="B8776" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8777" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8777" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8777" s="2">
         <v>45657.625648148147</v>
       </c>
-      <c r="B8777" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8778" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8778" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8778" s="2">
         <v>45657.667314814818</v>
       </c>
-      <c r="B8778" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8779" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8779" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8779" s="2">
         <v>45657.708981481483</v>
       </c>
-      <c r="B8779" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8780" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8780" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8780" s="2">
         <v>45657.750648148147</v>
       </c>
-      <c r="B8780" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8781" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8781" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8781" s="2">
         <v>45657.792314814818</v>
       </c>
-      <c r="B8781" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8782" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8782" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8782" s="2">
         <v>45657.833981481483</v>
       </c>
-      <c r="B8782" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8783" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8783" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8783" s="2">
         <v>45657.875648148147</v>
       </c>
-      <c r="B8783" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8784" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8784" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8784" s="2">
         <v>45657.917314814818</v>
       </c>
-      <c r="B8784" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8785" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8785" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8785" s="2">
         <v>45657.958981481483</v>
       </c>
-      <c r="B8785" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8786" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8786" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8786" s="2">
         <v>45658.000648148147</v>
       </c>
-      <c r="B8786" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8787" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8787" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8787" s="2">
         <v>45658.042314814818</v>
       </c>
-      <c r="B8787" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8788" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8788" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8788" s="2">
         <v>45658.083981481483</v>
       </c>
-      <c r="B8788" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8789" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8789" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8789" s="2">
         <v>45658.125648148147</v>
       </c>
-      <c r="B8789" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8790" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8790" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8790" s="2">
         <v>45658.167314814818</v>
       </c>
-      <c r="B8790" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8791" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8791" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8791" s="2">
         <v>45658.208981481483</v>
       </c>
-      <c r="B8791" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8792" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8792" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8792" s="2">
         <v>45658.250648148147</v>
       </c>
-      <c r="B8792" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8793" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8793" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8793" s="2">
         <v>45658.292314814818</v>
       </c>
-      <c r="B8793" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8794" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8794" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8794" s="2">
         <v>45658.333981481483</v>
       </c>
-      <c r="B8794" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8795" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8795" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8795" s="2">
         <v>45658.375648148147</v>
       </c>
-      <c r="B8795" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8796" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8796" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8796" s="2">
         <v>45658.417314814818</v>
       </c>
-      <c r="B8796" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8797" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8797" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8797" s="2">
         <v>45658.458981481483</v>
       </c>
-      <c r="B8797" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8798" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8798" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8798" s="2">
         <v>45658.500648148147</v>
       </c>
-      <c r="B8798" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8799" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8799" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8799" s="2">
         <v>45658.542314814818</v>
       </c>
-      <c r="B8799" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8800" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8800" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8800" s="2">
         <v>45658.583981481483</v>
-      </c>
-      <c r="B8800" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
